--- a/Create MPLS IFCs/ifc.xlsx
+++ b/Create MPLS IFCs/ifc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krishna/python-projects/My_venvs/venv1-enterprise/dcnm-python/Create MPLS IFCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8343CB55-C1F9-3F4E-BE27-CDA8CEF0DBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DEE50E-2CFD-7044-9CDF-DEBBF6290B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="49760" windowHeight="28300" activeTab="1" xr2:uid="{577367C2-E187-4A4C-BB4D-624BE457164E}"/>
+    <workbookView xWindow="9440" yWindow="6220" windowWidth="38400" windowHeight="21100" xr2:uid="{577367C2-E187-4A4C-BB4D-624BE457164E}"/>
   </bookViews>
   <sheets>
     <sheet name="underlay" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>device-serial</t>
   </si>
@@ -45,9 +45,6 @@
     <t>hostname</t>
   </si>
   <si>
-    <t>Border-2</t>
-  </si>
-  <si>
     <t>dest-switch</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Ethernet1/2</t>
   </si>
   <si>
-    <t>GigabitEthernet3</t>
-  </si>
-  <si>
     <t>100.64.0.9/30</t>
   </si>
   <si>
@@ -90,42 +84,12 @@
     <t>ospf</t>
   </si>
   <si>
-    <t>9PIHVXFMMC9</t>
-  </si>
-  <si>
-    <t>93ZN9XU97JJ</t>
-  </si>
-  <si>
-    <t>Border-1</t>
-  </si>
-  <si>
     <t>GigabitEthernet2</t>
   </si>
   <si>
-    <t>100.64.0.1/30</t>
-  </si>
-  <si>
-    <t>100.64.0.2</t>
-  </si>
-  <si>
     <t>NCS5K-2</t>
   </si>
   <si>
-    <t>Ethernet1/3</t>
-  </si>
-  <si>
-    <t>100.64.0.5/30</t>
-  </si>
-  <si>
-    <t>100.64.0.6</t>
-  </si>
-  <si>
-    <t>100.64.0.13/30</t>
-  </si>
-  <si>
-    <t>100.64.0.14</t>
-  </si>
-  <si>
     <t>source asn</t>
   </si>
   <si>
@@ -139,6 +103,18 @@
   </si>
   <si>
     <t>102.102.102.102</t>
+  </si>
+  <si>
+    <t>BL-1</t>
+  </si>
+  <si>
+    <t>BL-2</t>
+  </si>
+  <si>
+    <t>9X968T1JYYW</t>
+  </si>
+  <si>
+    <t>917OD3OYHJY</t>
   </si>
 </sst>
 </file>
@@ -496,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF738BB8-7431-D448-B33D-AEFB5573AC05}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,141 +499,54 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -668,10 +557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA662FFB-93DC-7C47-AB25-D3F3A129D1CC}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,27 +579,27 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>65095</v>
@@ -719,18 +608,18 @@
         <v>65200</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>65095</v>
@@ -739,18 +628,18 @@
         <v>65200</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>65095</v>
@@ -759,10 +648,31 @@
         <v>65200</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>65095</v>
+      </c>
+      <c r="E5">
+        <v>65200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>